--- a/data/historical_estimates/raw/Carretta_2011.xlsx
+++ b/data/historical_estimates/raw/Carretta_2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5106E7FB-17AA-CE45-A45E-767B56B12812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD79DF0F-0B7F-EC45-85D7-1F298B6061AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23160" yWindow="6680" windowWidth="28040" windowHeight="17440" xr2:uid="{8B494BD1-3378-A94F-B486-9E16E72F1F80}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>Carretta 2012</t>
-  </si>
-  <si>
     <t>Table 3</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>mort_cv</t>
+  </si>
+  <si>
+    <t>Carretta 2011</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,33 +444,33 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>2011</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -487,16 +487,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3">
         <v>2011</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -513,16 +513,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
       <c r="C4">
         <v>2011</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>16</v>
